--- a/biology/Zoologie/Civette-loutre_de_Sumatra/Civette-loutre_de_Sumatra.xlsx
+++ b/biology/Zoologie/Civette-loutre_de_Sumatra/Civette-loutre_de_Sumatra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynogale bennettii
-La Civette-loutre de Sumatra[1], Cynogale de Bennett ou Manpalon (Cynogale bennettii), est une espèce de mammifères Carnivores de la famille des viverridés. C'est la seule espèce du genre Cynogale.
+La Civette-loutre de Sumatra, Cynogale de Bennett ou Manpalon (Cynogale bennettii), est une espèce de mammifères Carnivores de la famille des viverridés. C'est la seule espèce du genre Cynogale.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure environ 70 à 90 cm de la tête à la queue. La fourrure est pâle, tirant presque sur le noir aux extrémités, et présente de longs poils grisâtres. Les moustaches (vibrisses) sont très longues[2].
-Elle présente plusieurs adaptations à son mode de vie semi-aquatique[3] : les narines et leurs oreilles peuvent se fermer pour éviter l'entrée d'eau, leurs pattes sont palmées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure environ 70 à 90 cm de la tête à la queue. La fourrure est pâle, tirant presque sur le noir aux extrémités, et présente de longs poils grisâtres. Les moustaches (vibrisses) sont très longues.
+Elle présente plusieurs adaptations à son mode de vie semi-aquatique : les narines et leurs oreilles peuvent se fermer pour éviter l'entrée d'eau, leurs pattes sont palmées.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la péninsule Malaise, dans les îles de Bornéo et de Sumatra, et peut aussi se rencontrer dans le sud de la Thaïlande[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la péninsule Malaise, dans les îles de Bornéo et de Sumatra, et peut aussi se rencontrer dans le sud de la Thaïlande.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un animal semi-aquatique, qui bien que terrestre ne s'éloigne jamais de l'eau. Il fréquente les zones humides ou marécageuses, les abords des cours d'eau[2].
-Son régime alimentaire est composé de poissons, mollusques, petits mammifères et oiseaux : les scientifiques pensent qu'elle capture les proies terrestres qui viennent boire, en se tenant à l’affût dans l'eau[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un animal semi-aquatique, qui bien que terrestre ne s'éloigne jamais de l'eau. Il fréquente les zones humides ou marécageuses, les abords des cours d'eau.
+Son régime alimentaire est composé de poissons, mollusques, petits mammifères et oiseaux : les scientifiques pensent qu'elle capture les proies terrestres qui viennent boire, en se tenant à l’affût dans l'eau.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur reproduction est peu connue. Les femelles donnent naissance à deux ou trois petits par saison[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur reproduction est peu connue. Les femelles donnent naissance à deux ou trois petits par saison.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom scientifique rend hommage à Edward Turner Bennett (1797-1836), un médecin et zoologiste britannique[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom scientifique rend hommage à Edward Turner Bennett (1797-1836), un médecin et zoologiste britannique.
 </t>
         </is>
       </c>
